--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Duplicate Lead" sheetId="2" r:id="rId1"/>
-    <sheet name="Edit lead" sheetId="3" r:id="rId2"/>
+    <sheet name="Merge Lead" sheetId="4" r:id="rId2"/>
+    <sheet name="Edit lead" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
   <si>
     <t>#</t>
   </si>
@@ -218,6 +219,39 @@
   </si>
   <si>
     <t>Durga</t>
+  </si>
+  <si>
+    <t>Click Merge leads</t>
+  </si>
+  <si>
+    <t>Click on From Lead</t>
+  </si>
+  <si>
+    <t>Click on To Lead</t>
+  </si>
+  <si>
+    <t>Click Merge button</t>
+  </si>
+  <si>
+    <t>Click on First resulting lead</t>
+  </si>
+  <si>
+    <t>Click on Second resulting lead</t>
+  </si>
+  <si>
+    <t>Click on Merge button</t>
+  </si>
+  <si>
+    <t>Get the text from alert message box</t>
+  </si>
+  <si>
+    <t>Click Ok to Accept the alert message</t>
+  </si>
+  <si>
+    <t>Click Cancel to Dismiss the alert message</t>
+  </si>
+  <si>
+    <t>Confirm the Merged lead name is same as captured name</t>
   </si>
 </sst>
 </file>
@@ -411,6 +445,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -437,13 +478,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -752,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,12 +826,12 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -806,10 +840,10 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -818,10 +852,10 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -830,10 +864,10 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -899,7 +933,7 @@
       <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -917,13 +951,13 @@
       <c r="C10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -937,7 +971,7 @@
       <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -955,7 +989,7 @@
       <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -973,7 +1007,7 @@
       <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -991,7 +1025,7 @@
       <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1012,7 +1046,7 @@
       <c r="E15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1026,7 +1060,7 @@
       <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1081,10 +1115,306 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,12 +1453,12 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1137,10 +1467,10 @@
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1149,10 +1479,10 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1161,10 +1491,10 @@
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1268,7 +1598,7 @@
       <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1303,7 +1633,7 @@
       <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="5" t="s">
